--- a/files/reporte-intercambio-salida.xlsx
+++ b/files/reporte-intercambio-salida.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -110,48 +110,6 @@
   </si>
   <si>
     <t>Autor</t>
-  </si>
-  <si>
-    <t>periodo5</t>
-  </si>
-  <si>
-    <t>mexicali</t>
-  </si>
-  <si>
-    <t>Los pinos</t>
-  </si>
-  <si>
-    <t>Maestria</t>
-  </si>
-  <si>
-    <t>INGENIERIA</t>
-  </si>
-  <si>
-    <t>ALONDRA</t>
-  </si>
-  <si>
-    <t>VALDEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>CIENCIAS</t>
-  </si>
-  <si>
-    <t>MEXICO</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>español</t>
-  </si>
-  <si>
-    <t>Si</t>
   </si>
 </sst>
 </file>
@@ -190,10 +148,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="33" width="10" customWidth="1"/>
@@ -640,104 +597,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>987654</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2">
-        <v>635435</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2">
-        <v>6546</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2">
-        <v>546654</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2">
-        <v>54465</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2">
-        <v>213564</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2">
-        <v>8000</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>44607.33333333333</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>44712.29166666667</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
